--- a/ごみ処理所仕様書.xlsx
+++ b/ごみ処理所仕様書.xlsx
@@ -5,19 +5,19 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GA2A\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GA2A\Desktop\post\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9420" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="目次" sheetId="1" r:id="rId1"/>
     <sheet name="ゲーム画面" sheetId="3" r:id="rId2"/>
     <sheet name="操作方法" sheetId="4" r:id="rId3"/>
     <sheet name="アームの動き" sheetId="5" r:id="rId4"/>
-    <sheet name="焼却炉の動き" sheetId="6" r:id="rId5"/>
-    <sheet name="プレス機の動き" sheetId="7" r:id="rId6"/>
+    <sheet name="プレス機の動き" sheetId="7" r:id="rId5"/>
+    <sheet name="焼却炉の動き" sheetId="6" r:id="rId6"/>
     <sheet name="ゴミの種類" sheetId="9" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="50">
   <si>
     <t>目次</t>
     <rPh sb="0" eb="2">
@@ -90,13 +90,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Lスティック(左右)</t>
-    <rPh sb="7" eb="9">
-      <t>サユウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>アームの下降位置調整</t>
     <rPh sb="4" eb="6">
       <t>カコウ</t>
@@ -127,19 +120,530 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Lスティック(下)</t>
+    <t>Ａボタン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ｘボタン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面中央がゲームのメイン
+ゴミが中央から溢れ出したらゲームオーバー</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>チュウオウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>チュウオウ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>アフ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>きちんと仕分けられるとゲージが増え、
+仕分け間違えるとゲージが減る。
+ゲージがマックスまで溜まるとゲームクリア</t>
+    <rPh sb="4" eb="6">
+      <t>シワ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>シワ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>マチガ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ヘ</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゴミは鉄くずと生ごみの二種類がある
+鉄くずは画面左に生ごみは画面右に仕分ける</t>
+    <rPh sb="3" eb="4">
+      <t>テツ</t>
+    </rPh>
     <rPh sb="7" eb="8">
-      <t>シタ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>十字(下)</t>
+      <t>ナマ</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>ニシュルイ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>テツ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ヒダリ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ナマ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ミギ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>シワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>十字(左右)</t>
     <rPh sb="0" eb="2">
       <t>ジュウジ</t>
     </rPh>
+    <rPh sb="3" eb="5">
+      <t>サユウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アームを左右に移動させる</t>
+    <rPh sb="4" eb="6">
+      <t>サユウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ａボタン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アームを下降させる</t>
+    <rPh sb="4" eb="6">
+      <t>カコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゴミを拾う時の動き</t>
     <rPh sb="3" eb="4">
+      <t>ヒロ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ウゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・ゴミに重量を設定して、アームの許容重量を越えなければ
+　その分だけ持ち上げることができる。
+・ゴミ袋は持ち上げることはできないが、
+　何度かアームを当てると袋を破壊してゴミが出てくる。</t>
+    <rPh sb="4" eb="6">
+      <t>ジュウリョウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>キョヨウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ジュウリョウ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>ブクロ</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="68" eb="70">
+      <t>ナンド</t>
+    </rPh>
+    <rPh sb="75" eb="76">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="79" eb="80">
+      <t>フクロ</t>
+    </rPh>
+    <rPh sb="81" eb="83">
+      <t>ハカイ</t>
+    </rPh>
+    <rPh sb="88" eb="89">
+      <t>デ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画像なし</t>
+    <rPh sb="0" eb="2">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレス機作動</t>
+    <rPh sb="3" eb="4">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>サドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>鉄くずをスクラップにする</t>
+    <rPh sb="0" eb="1">
+      <t>テツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲーム内での詳しい動き</t>
+    <rPh sb="3" eb="4">
+      <t>ウチ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>クワ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ウゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲーム内での詳しい動き</t>
+    <rPh sb="3" eb="4">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>クワ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ウゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>操作は特になし</t>
+    <rPh sb="0" eb="2">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>トク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・生ごみが入ると焼いてくれる
+・鉄くずが入ると焼けるがゲージが減る
+・鉄くずを入れると火が消えるギミックもあり</t>
+    <rPh sb="1" eb="2">
+      <t>ナマ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ハイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ヤ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>テツ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ハイ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ヤ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ヘ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>テツ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・鉄くずをスクラップにするためには、
+　ある程度の高さまで鉄くずを貯める必要がある。
+・スクラップになったあとは下が開いて落ちていく
+・生ごみが入っているとプレス機は動かない</t>
+    <rPh sb="1" eb="2">
+      <t>テツ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>テイド</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>タカ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>テツ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="56" eb="57">
       <t>シタ</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>ヒラ</t>
+    </rPh>
+    <rPh sb="61" eb="62">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="68" eb="69">
+      <t>ナマ</t>
+    </rPh>
+    <rPh sb="72" eb="73">
+      <t>ハイ</t>
+    </rPh>
+    <rPh sb="81" eb="82">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="83" eb="84">
+      <t>ウゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・アームは下降させていない状態でのみ左右に動かすことができる
+・アームは画面中央では下降できるが焼却炉の上ではアームを開くだけ
+　焼却炉に生ごみが入っている場合は下降することができる</t>
+    <rPh sb="5" eb="7">
+      <t>カコウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>サユウ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ウゴ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>チュウオウ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>カコウ</t>
+    </rPh>
+    <rPh sb="48" eb="51">
+      <t>ショウキャクロ</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="59" eb="60">
+      <t>ヒラ</t>
+    </rPh>
+    <rPh sb="65" eb="68">
+      <t>ショウキャクロ</t>
+    </rPh>
+    <rPh sb="69" eb="70">
+      <t>ナマ</t>
+    </rPh>
+    <rPh sb="73" eb="74">
+      <t>ハイ</t>
+    </rPh>
+    <rPh sb="78" eb="80">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="81" eb="83">
+      <t>カコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>釘</t>
+    <rPh sb="0" eb="1">
+      <t>クギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>鉄くず</t>
+    <rPh sb="0" eb="1">
+      <t>テツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自転車</t>
+    <rPh sb="0" eb="3">
+      <t>ジテンシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボルト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>生ごみ</t>
+    <rPh sb="0" eb="1">
+      <t>ナマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フライパン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バナナの皮</t>
+    <rPh sb="4" eb="5">
+      <t>カワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>魚(骨)</t>
+    <rPh sb="0" eb="1">
+      <t>サカナ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ホネ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>紙屑</t>
+    <rPh sb="0" eb="2">
+      <t>カミクズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボロボロになった服</t>
+    <rPh sb="8" eb="9">
+      <t>フク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リンゴの芯</t>
+    <rPh sb="4" eb="5">
+      <t>シン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>まとめられた新聞</t>
+    <rPh sb="6" eb="8">
+      <t>シンブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>空き缶</t>
+    <rPh sb="0" eb="1">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>カン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バールのようなもの</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲーム画面</t>
+    <rPh sb="3" eb="5">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>操作方法</t>
+    <rPh sb="0" eb="2">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アームの動き</t>
+    <rPh sb="4" eb="5">
+      <t>ウゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレス機の動き</t>
+    <rPh sb="3" eb="4">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ウゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>焼却炉の動き</t>
+    <rPh sb="0" eb="3">
+      <t>ショウキャクロ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ウゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゴミの種類</t>
+    <rPh sb="3" eb="5">
+      <t>シュルイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -148,7 +652,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -177,6 +681,71 @@
       <b/>
       <sz val="48"/>
       <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="26"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="22"/>
+      <color theme="10"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="22"/>
+      <color theme="10"/>
       <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
@@ -280,15 +849,45 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -316,33 +915,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -361,8 +933,210 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -382,26 +1156,26 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>409576</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>471263</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
+      <xdr:rowOff>207282</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>595087</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
+      <xdr:rowOff>207282</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="正方形/長方形 3"/>
+        <xdr:cNvPr id="15" name="正方形/長方形 14"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6581776" y="3076575"/>
-          <a:ext cx="123824" cy="2857500"/>
+          <a:off x="7755620" y="2974068"/>
+          <a:ext cx="123824" cy="2730500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -436,16 +1210,70 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>164649</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:rowOff>9526</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>288473</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>454</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="正方形/長方形 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5462363" y="3003097"/>
+          <a:ext cx="123824" cy="2730500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>361043</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>210003</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>513443</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
+      <xdr:rowOff>154668</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -454,8 +1282,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3771900" y="3143250"/>
-          <a:ext cx="152400" cy="2790825"/>
+          <a:off x="3009900" y="2976789"/>
+          <a:ext cx="152400" cy="2675165"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -493,11 +1321,11 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:rowOff>9071</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>562429</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
@@ -508,8 +1336,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="695325" y="5762625"/>
-          <a:ext cx="8905875" cy="228600"/>
+          <a:off x="671739" y="5506357"/>
+          <a:ext cx="7175047" cy="236311"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -544,16 +1372,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>19049</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>9978</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>619124</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>660</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>610053</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>218374</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -576,8 +1404,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6191249" y="914400"/>
-          <a:ext cx="1285875" cy="1486560"/>
+          <a:off x="4645478" y="889000"/>
+          <a:ext cx="1262289" cy="1406731"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -588,16 +1416,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>538389</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>19957</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>328839</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>29533</xdr:rowOff>
+      <xdr:rowOff>38604</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -620,8 +1448,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3876675" y="4533900"/>
-          <a:ext cx="1162050" cy="1229683"/>
+          <a:off x="3187246" y="4374243"/>
+          <a:ext cx="1114879" cy="1161647"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -632,16 +1460,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>161924</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>252638</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>161924</xdr:rowOff>
+      <xdr:rowOff>180067</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>57149</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>147863</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>28574</xdr:rowOff>
+      <xdr:rowOff>46717</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -664,8 +1492,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4962524" y="5181599"/>
-          <a:ext cx="581025" cy="581025"/>
+          <a:off x="4225924" y="4996996"/>
+          <a:ext cx="557439" cy="547007"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -677,15 +1505,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
+      <xdr:colOff>127000</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>209550</xdr:rowOff>
+      <xdr:rowOff>218622</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
+      <xdr:colOff>146050</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>133351</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -708,8 +1536,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1257300" y="4038600"/>
-          <a:ext cx="2076450" cy="2076450"/>
+          <a:off x="789214" y="3892551"/>
+          <a:ext cx="2005693" cy="1973943"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -720,16 +1548,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>569366</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>660080</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>72011</xdr:rowOff>
+      <xdr:rowOff>90154</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>157283</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>247998</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>79028</xdr:rowOff>
+      <xdr:rowOff>97170</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -752,8 +1580,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm rot="15899163">
-          <a:off x="5369966" y="4853561"/>
-          <a:ext cx="959517" cy="959517"/>
+          <a:off x="4632459" y="4681204"/>
+          <a:ext cx="914159" cy="912346"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -764,14 +1592,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>582840</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:rowOff>37647</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>239940</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
@@ -796,8 +1624,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7286625" y="4095750"/>
-          <a:ext cx="1714500" cy="1714500"/>
+          <a:off x="5880554" y="3938361"/>
+          <a:ext cx="1643743" cy="1635125"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -814,8 +1642,8 @@
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>208643</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>228600</xdr:rowOff>
     </xdr:to>
@@ -826,8 +1654,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="733425" y="2324100"/>
-          <a:ext cx="3019425" cy="542925"/>
+          <a:off x="709839" y="2239282"/>
+          <a:ext cx="2147661" cy="520247"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -862,16 +1690,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>501197</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>227239</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>453571</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:rowOff>172357</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -880,8 +1708,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1609725" y="981075"/>
-          <a:ext cx="1323975" cy="1371600"/>
+          <a:off x="1163411" y="925739"/>
+          <a:ext cx="1276803" cy="1323975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -914,6 +1742,200 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>471716</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>199570</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>99787</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>199570</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="正方形/長方形 12"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8418287" y="2276927"/>
+          <a:ext cx="290286" cy="2276929"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>471716</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>214144</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>99787</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>208642</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="正方形/長方形 13"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8418287" y="3661287"/>
+          <a:ext cx="290286" cy="901641"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>163287</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>54430</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>517070</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>163285</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="図 15"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8109858" y="4644573"/>
+          <a:ext cx="1015998" cy="1015998"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>36286</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>134256</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>61685</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="図 16"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7982857" y="1068613"/>
+          <a:ext cx="1070429" cy="1070429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -927,8 +1949,8 @@
       <xdr:rowOff>230231</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>678525</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>2064</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -955,6 +1977,55 @@
         <a:xfrm>
           <a:off x="684577" y="947407"/>
           <a:ext cx="4095301" cy="4061622"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>290285</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>344714</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>209548</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="952499" y="889000"/>
+          <a:ext cx="2703286" cy="3012619"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1229,48 +2300,147 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="14"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A2" s="11"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="15"/>
-    </row>
-    <row r="3" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="16"/>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="18"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="3"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="4"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="6"/>
+    </row>
+    <row r="3" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A3" s="7"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="9"/>
+    </row>
+    <row r="4" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B5" s="90" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="85"/>
+      <c r="D5" s="85"/>
+      <c r="E5" s="86"/>
+    </row>
+    <row r="6" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B6" s="87"/>
+      <c r="C6" s="88"/>
+      <c r="D6" s="88"/>
+      <c r="E6" s="89"/>
+    </row>
+    <row r="7" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B7" s="91" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="85"/>
+      <c r="D7" s="85"/>
+      <c r="E7" s="86"/>
+    </row>
+    <row r="8" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B8" s="87"/>
+      <c r="C8" s="88"/>
+      <c r="D8" s="88"/>
+      <c r="E8" s="89"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B9" s="91" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="85"/>
+      <c r="D9" s="85"/>
+      <c r="E9" s="86"/>
+    </row>
+    <row r="10" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B10" s="87"/>
+      <c r="C10" s="88"/>
+      <c r="D10" s="88"/>
+      <c r="E10" s="89"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B11" s="91" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="85"/>
+      <c r="D11" s="85"/>
+      <c r="E11" s="86"/>
+    </row>
+    <row r="12" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B12" s="87"/>
+      <c r="C12" s="88"/>
+      <c r="D12" s="88"/>
+      <c r="E12" s="89"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B13" s="91" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="85"/>
+      <c r="D13" s="85"/>
+      <c r="E13" s="86"/>
+    </row>
+    <row r="14" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B14" s="87"/>
+      <c r="C14" s="88"/>
+      <c r="D14" s="88"/>
+      <c r="E14" s="89"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B15" s="91" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" s="85"/>
+      <c r="D15" s="85"/>
+      <c r="E15" s="86"/>
+    </row>
+    <row r="16" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B16" s="87"/>
+      <c r="C16" s="88"/>
+      <c r="D16" s="88"/>
+      <c r="E16" s="89"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="7">
+    <mergeCell ref="B13:E14"/>
+    <mergeCell ref="B15:E16"/>
     <mergeCell ref="A1:G3"/>
+    <mergeCell ref="B5:E6"/>
+    <mergeCell ref="B7:E8"/>
+    <mergeCell ref="B9:E10"/>
+    <mergeCell ref="B11:E12"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="B5:E6" location="ゲーム画面!A1" display="ゲーム画面"/>
+    <hyperlink ref="B7:E8" location="操作方法!A1" display="操作方法"/>
+    <hyperlink ref="B9:E10" location="アームの動き!A1" display="アームの動き"/>
+    <hyperlink ref="B11:E12" location="プレス機の動き!A1" display="プレス機の動き"/>
+    <hyperlink ref="B13:E14" location="焼却炉の動き!A1" display="焼却炉の動き"/>
+    <hyperlink ref="B15:E16" location="ゴミの種類!A1" display="ゴミの種類"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1278,363 +2448,532 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:Y25"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N26" sqref="N26"/>
+      <selection sqref="A1:G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="14"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A2" s="11"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="15"/>
-    </row>
-    <row r="3" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="16"/>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="18"/>
-    </row>
-    <row r="4" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="B5" s="1"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="3"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="B6" s="4"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="6"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="B7" s="4"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="6"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="B8" s="4"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="6"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="B9" s="4"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="6"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="B10" s="4"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="6"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="B11" s="4"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="6"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="B12" s="4"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="6"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="B13" s="4"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="6"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="B14" s="4"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="6"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="B15" s="4"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
-      <c r="N15" s="6"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="B16" s="4"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
-      <c r="N16" s="6"/>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B17" s="4"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
-      <c r="N17" s="6"/>
-    </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B18" s="4"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
-      <c r="N18" s="6"/>
-    </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B19" s="4"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
-      <c r="N19" s="6"/>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B20" s="4"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="5"/>
-      <c r="N20" s="6"/>
-    </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B21" s="4"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
-      <c r="M21" s="5"/>
-      <c r="N21" s="6"/>
-    </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B22" s="4"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="5"/>
-      <c r="M22" s="5"/>
-      <c r="N22" s="6"/>
-    </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B23" s="4"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
-      <c r="M23" s="5"/>
-      <c r="N23" s="6"/>
-    </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B24" s="4"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="5"/>
-      <c r="M24" s="5"/>
-      <c r="N24" s="6"/>
-    </row>
-    <row r="25" spans="2:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="7"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="8"/>
-      <c r="M25" s="8"/>
-      <c r="N25" s="9"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="3"/>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="4"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="6"/>
+    </row>
+    <row r="3" spans="1:25" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A3" s="7"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="9"/>
+    </row>
+    <row r="4" spans="1:25" ht="18.5" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="5" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B5" s="10"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="12"/>
+      <c r="P5" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q5" s="33"/>
+      <c r="R5" s="33"/>
+      <c r="S5" s="33"/>
+      <c r="T5" s="33"/>
+      <c r="U5" s="33"/>
+      <c r="V5" s="33"/>
+      <c r="W5" s="33"/>
+      <c r="X5" s="33"/>
+      <c r="Y5" s="34"/>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="B6" s="13"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="15"/>
+      <c r="P6" s="35"/>
+      <c r="Q6" s="32"/>
+      <c r="R6" s="32"/>
+      <c r="S6" s="32"/>
+      <c r="T6" s="32"/>
+      <c r="U6" s="32"/>
+      <c r="V6" s="32"/>
+      <c r="W6" s="32"/>
+      <c r="X6" s="32"/>
+      <c r="Y6" s="36"/>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="B7" s="13"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="15"/>
+      <c r="P7" s="35"/>
+      <c r="Q7" s="32"/>
+      <c r="R7" s="32"/>
+      <c r="S7" s="32"/>
+      <c r="T7" s="32"/>
+      <c r="U7" s="32"/>
+      <c r="V7" s="32"/>
+      <c r="W7" s="32"/>
+      <c r="X7" s="32"/>
+      <c r="Y7" s="36"/>
+    </row>
+    <row r="8" spans="1:25" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B8" s="13"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="15"/>
+      <c r="P8" s="37"/>
+      <c r="Q8" s="38"/>
+      <c r="R8" s="38"/>
+      <c r="S8" s="38"/>
+      <c r="T8" s="38"/>
+      <c r="U8" s="38"/>
+      <c r="V8" s="38"/>
+      <c r="W8" s="38"/>
+      <c r="X8" s="38"/>
+      <c r="Y8" s="39"/>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="B9" s="13"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="15"/>
+      <c r="P9" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="11"/>
+      <c r="T9" s="11"/>
+      <c r="U9" s="11"/>
+      <c r="V9" s="11"/>
+      <c r="W9" s="11"/>
+      <c r="X9" s="11"/>
+      <c r="Y9" s="12"/>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="B10" s="13"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="15"/>
+      <c r="P10" s="13"/>
+      <c r="Q10" s="14"/>
+      <c r="R10" s="14"/>
+      <c r="S10" s="14"/>
+      <c r="T10" s="14"/>
+      <c r="U10" s="14"/>
+      <c r="V10" s="14"/>
+      <c r="W10" s="14"/>
+      <c r="X10" s="14"/>
+      <c r="Y10" s="15"/>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="B11" s="13"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="15"/>
+      <c r="P11" s="13"/>
+      <c r="Q11" s="14"/>
+      <c r="R11" s="14"/>
+      <c r="S11" s="14"/>
+      <c r="T11" s="14"/>
+      <c r="U11" s="14"/>
+      <c r="V11" s="14"/>
+      <c r="W11" s="14"/>
+      <c r="X11" s="14"/>
+      <c r="Y11" s="15"/>
+    </row>
+    <row r="12" spans="1:25" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B12" s="13"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="15"/>
+      <c r="P12" s="16"/>
+      <c r="Q12" s="17"/>
+      <c r="R12" s="17"/>
+      <c r="S12" s="17"/>
+      <c r="T12" s="17"/>
+      <c r="U12" s="17"/>
+      <c r="V12" s="17"/>
+      <c r="W12" s="17"/>
+      <c r="X12" s="17"/>
+      <c r="Y12" s="18"/>
+    </row>
+    <row r="13" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B13" s="13"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="15"/>
+      <c r="P13" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q13" s="44"/>
+      <c r="R13" s="44"/>
+      <c r="S13" s="44"/>
+      <c r="T13" s="44"/>
+      <c r="U13" s="44"/>
+      <c r="V13" s="44"/>
+      <c r="W13" s="44"/>
+      <c r="X13" s="44"/>
+      <c r="Y13" s="45"/>
+    </row>
+    <row r="14" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B14" s="13"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="15"/>
+      <c r="P14" s="46"/>
+      <c r="Q14" s="47"/>
+      <c r="R14" s="47"/>
+      <c r="S14" s="47"/>
+      <c r="T14" s="47"/>
+      <c r="U14" s="47"/>
+      <c r="V14" s="47"/>
+      <c r="W14" s="47"/>
+      <c r="X14" s="47"/>
+      <c r="Y14" s="48"/>
+    </row>
+    <row r="15" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B15" s="13"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="15"/>
+      <c r="P15" s="46"/>
+      <c r="Q15" s="47"/>
+      <c r="R15" s="47"/>
+      <c r="S15" s="47"/>
+      <c r="T15" s="47"/>
+      <c r="U15" s="47"/>
+      <c r="V15" s="47"/>
+      <c r="W15" s="47"/>
+      <c r="X15" s="47"/>
+      <c r="Y15" s="48"/>
+    </row>
+    <row r="16" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B16" s="13"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="14"/>
+      <c r="N16" s="15"/>
+      <c r="P16" s="46"/>
+      <c r="Q16" s="47"/>
+      <c r="R16" s="47"/>
+      <c r="S16" s="47"/>
+      <c r="T16" s="47"/>
+      <c r="U16" s="47"/>
+      <c r="V16" s="47"/>
+      <c r="W16" s="47"/>
+      <c r="X16" s="47"/>
+      <c r="Y16" s="48"/>
+    </row>
+    <row r="17" spans="2:25" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B17" s="13"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="14"/>
+      <c r="N17" s="15"/>
+      <c r="P17" s="46"/>
+      <c r="Q17" s="47"/>
+      <c r="R17" s="47"/>
+      <c r="S17" s="47"/>
+      <c r="T17" s="47"/>
+      <c r="U17" s="47"/>
+      <c r="V17" s="47"/>
+      <c r="W17" s="47"/>
+      <c r="X17" s="47"/>
+      <c r="Y17" s="48"/>
+    </row>
+    <row r="18" spans="2:25" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B18" s="13"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="14"/>
+      <c r="N18" s="15"/>
+      <c r="P18" s="49"/>
+      <c r="Q18" s="50"/>
+      <c r="R18" s="50"/>
+      <c r="S18" s="50"/>
+      <c r="T18" s="50"/>
+      <c r="U18" s="50"/>
+      <c r="V18" s="50"/>
+      <c r="W18" s="50"/>
+      <c r="X18" s="50"/>
+      <c r="Y18" s="51"/>
+    </row>
+    <row r="19" spans="2:25" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B19" s="13"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="14"/>
+      <c r="M19" s="14"/>
+      <c r="N19" s="15"/>
+      <c r="P19" s="52"/>
+      <c r="Q19" s="52"/>
+      <c r="R19" s="52"/>
+      <c r="S19" s="52"/>
+      <c r="T19" s="52"/>
+      <c r="U19" s="52"/>
+      <c r="V19" s="52"/>
+      <c r="W19" s="52"/>
+      <c r="X19" s="52"/>
+      <c r="Y19" s="52"/>
+    </row>
+    <row r="20" spans="2:25" ht="18.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B20" s="13"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="14"/>
+      <c r="M20" s="14"/>
+      <c r="N20" s="15"/>
+      <c r="P20" s="52"/>
+      <c r="Q20" s="52"/>
+      <c r="R20" s="52"/>
+      <c r="S20" s="52"/>
+      <c r="T20" s="52"/>
+      <c r="U20" s="52"/>
+      <c r="V20" s="52"/>
+      <c r="W20" s="52"/>
+      <c r="X20" s="52"/>
+      <c r="Y20" s="52"/>
+    </row>
+    <row r="21" spans="2:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="B21" s="13"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="14"/>
+      <c r="L21" s="14"/>
+      <c r="M21" s="14"/>
+      <c r="N21" s="15"/>
+    </row>
+    <row r="22" spans="2:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="B22" s="13"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="14"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="14"/>
+      <c r="M22" s="14"/>
+      <c r="N22" s="15"/>
+    </row>
+    <row r="23" spans="2:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="B23" s="13"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="14"/>
+      <c r="K23" s="14"/>
+      <c r="L23" s="14"/>
+      <c r="M23" s="14"/>
+      <c r="N23" s="15"/>
+    </row>
+    <row r="24" spans="2:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="B24" s="13"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="14"/>
+      <c r="K24" s="14"/>
+      <c r="L24" s="14"/>
+      <c r="M24" s="14"/>
+      <c r="N24" s="15"/>
+    </row>
+    <row r="25" spans="2:25" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B25" s="16"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="17"/>
+      <c r="J25" s="17"/>
+      <c r="K25" s="17"/>
+      <c r="L25" s="17"/>
+      <c r="M25" s="17"/>
+      <c r="N25" s="18"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="5">
     <mergeCell ref="A1:G3"/>
     <mergeCell ref="B5:N25"/>
+    <mergeCell ref="P5:Y8"/>
+    <mergeCell ref="P9:Y12"/>
+    <mergeCell ref="P13:Y18"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1647,334 +2986,282 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13:L14"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="14"/>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A2" s="11"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="15"/>
-    </row>
-    <row r="3" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="16"/>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="18"/>
-    </row>
-    <row r="4" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="B5" s="1"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="3"/>
-      <c r="I5" s="19" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="3"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="4"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="6"/>
+    </row>
+    <row r="3" spans="1:19" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A3" s="7"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="9"/>
+    </row>
+    <row r="4" spans="1:19" ht="18.5" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="5" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B5" s="10"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="12"/>
+    </row>
+    <row r="6" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B6" s="13"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="15"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="B7" s="13"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="15"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="B8" s="13"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="15"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="B9" s="13"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="15"/>
+    </row>
+    <row r="10" spans="1:19" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B10" s="13"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="15"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="B11" s="13"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="15"/>
+      <c r="I11" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="J5" s="20"/>
-      <c r="K5" s="20"/>
-      <c r="L5" s="21"/>
-      <c r="M5" s="19" t="s">
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="11"/>
+      <c r="S11" s="12"/>
+    </row>
+    <row r="12" spans="1:19" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B12" s="13"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="15"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="16"/>
+      <c r="N12" s="17"/>
+      <c r="O12" s="17"/>
+      <c r="P12" s="17"/>
+      <c r="Q12" s="17"/>
+      <c r="R12" s="17"/>
+      <c r="S12" s="18"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="B13" s="13"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="15"/>
+      <c r="I13" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
-      <c r="S5" s="3"/>
-    </row>
-    <row r="6" spans="1:19" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="4"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="6"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="23"/>
-      <c r="K6" s="23"/>
-      <c r="L6" s="24"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="8"/>
-      <c r="R6" s="8"/>
-      <c r="S6" s="9"/>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="B7" s="4"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="6"/>
-      <c r="I7" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="2"/>
-      <c r="S7" s="3"/>
-    </row>
-    <row r="8" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="4"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="6"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="8"/>
-      <c r="Q8" s="8"/>
-      <c r="R8" s="8"/>
-      <c r="S8" s="9"/>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="B9" s="4"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="6"/>
-      <c r="I9" s="19" t="s">
+      <c r="N13" s="11"/>
+      <c r="O13" s="11"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="11"/>
+      <c r="R13" s="11"/>
+      <c r="S13" s="12"/>
+    </row>
+    <row r="14" spans="1:19" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B14" s="13"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="15"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="17"/>
+      <c r="L14" s="18"/>
+      <c r="M14" s="16"/>
+      <c r="N14" s="17"/>
+      <c r="O14" s="17"/>
+      <c r="P14" s="17"/>
+      <c r="Q14" s="17"/>
+      <c r="R14" s="17"/>
+      <c r="S14" s="18"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="B15" s="13"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="15"/>
+      <c r="I15" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="2"/>
-      <c r="S9" s="3"/>
-    </row>
-    <row r="10" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="4"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="6"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="8"/>
-      <c r="O10" s="8"/>
-      <c r="P10" s="8"/>
-      <c r="Q10" s="8"/>
-      <c r="R10" s="8"/>
-      <c r="S10" s="9"/>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="B11" s="4"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="6"/>
-      <c r="I11" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
-      <c r="P11" s="2"/>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="2"/>
-      <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="4"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="6"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="7"/>
-      <c r="N12" s="8"/>
-      <c r="O12" s="8"/>
-      <c r="P12" s="8"/>
-      <c r="Q12" s="8"/>
-      <c r="R12" s="8"/>
-      <c r="S12" s="9"/>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="B13" s="4"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="6"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
-      <c r="P13" s="2"/>
-      <c r="Q13" s="2"/>
-      <c r="R13" s="2"/>
-      <c r="S13" s="3"/>
-    </row>
-    <row r="14" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B14" s="4"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="6"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="7"/>
-      <c r="N14" s="8"/>
-      <c r="O14" s="8"/>
-      <c r="P14" s="8"/>
-      <c r="Q14" s="8"/>
-      <c r="R14" s="8"/>
-      <c r="S14" s="9"/>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="B15" s="4"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="6"/>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="B16" s="4"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="6"/>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B17" s="4"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="6"/>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B18" s="4"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="6"/>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B19" s="4"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="6"/>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B20" s="4"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="6"/>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B21" s="4"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="6"/>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B22" s="4"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="6"/>
-    </row>
-    <row r="23" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="7"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="9"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="N15" s="11"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="11"/>
+      <c r="S15" s="12"/>
+    </row>
+    <row r="16" spans="1:19" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B16" s="13"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="15"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="17"/>
+      <c r="L16" s="18"/>
+      <c r="M16" s="16"/>
+      <c r="N16" s="17"/>
+      <c r="O16" s="17"/>
+      <c r="P16" s="17"/>
+      <c r="Q16" s="17"/>
+      <c r="R16" s="17"/>
+      <c r="S16" s="18"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B17" s="13"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="15"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B18" s="13"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="15"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B19" s="13"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="15"/>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B20" s="13"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="15"/>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B21" s="13"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="15"/>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B22" s="13"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="15"/>
+    </row>
+    <row r="23" spans="2:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B23" s="16"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="18"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="I9:L10"/>
-    <mergeCell ref="M9:S10"/>
+  <mergeCells count="8">
+    <mergeCell ref="A1:G3"/>
+    <mergeCell ref="B5:G23"/>
     <mergeCell ref="I11:L12"/>
     <mergeCell ref="M11:S12"/>
+    <mergeCell ref="I15:L16"/>
+    <mergeCell ref="M15:S16"/>
     <mergeCell ref="I13:L14"/>
     <mergeCell ref="M13:S14"/>
-    <mergeCell ref="A1:G3"/>
-    <mergeCell ref="B5:G23"/>
-    <mergeCell ref="I5:L6"/>
-    <mergeCell ref="M5:S6"/>
-    <mergeCell ref="I7:L8"/>
-    <mergeCell ref="M7:S8"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1985,95 +3272,786 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:U32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:G3"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13:U18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="14"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A2" s="11"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="15"/>
-    </row>
-    <row r="3" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="16"/>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="18"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="3"/>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="4"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="6"/>
+    </row>
+    <row r="3" spans="1:21" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A3" s="7"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="9"/>
+    </row>
+    <row r="4" spans="1:21" ht="18.5" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="5" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B5" s="10"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="12"/>
+      <c r="H5" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="20"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="L5" s="20"/>
+      <c r="M5" s="20"/>
+      <c r="N5" s="20"/>
+      <c r="O5" s="21"/>
+    </row>
+    <row r="6" spans="1:21" ht="18.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B6" s="13"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="15"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="24"/>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="B7" s="13"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="15"/>
+      <c r="H7" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" s="11"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="12"/>
+    </row>
+    <row r="8" spans="1:21" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B8" s="13"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="15"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="17"/>
+      <c r="N8" s="17"/>
+      <c r="O8" s="18"/>
+    </row>
+    <row r="9" spans="1:21" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B9" s="13"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="15"/>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="B10" s="13"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="15"/>
+      <c r="H10" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="20"/>
+      <c r="N10" s="21"/>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="B11" s="13"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="15"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="54"/>
+      <c r="J11" s="54"/>
+      <c r="K11" s="54"/>
+      <c r="L11" s="54"/>
+      <c r="M11" s="54"/>
+      <c r="N11" s="56"/>
+    </row>
+    <row r="12" spans="1:21" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B12" s="13"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="15"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="24"/>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="B13" s="13"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="15"/>
+      <c r="H13" s="57" t="s">
+        <v>29</v>
+      </c>
+      <c r="I13" s="66"/>
+      <c r="J13" s="66"/>
+      <c r="K13" s="66"/>
+      <c r="L13" s="66"/>
+      <c r="M13" s="66"/>
+      <c r="N13" s="66"/>
+      <c r="O13" s="66"/>
+      <c r="P13" s="66"/>
+      <c r="Q13" s="66"/>
+      <c r="R13" s="66"/>
+      <c r="S13" s="66"/>
+      <c r="T13" s="66"/>
+      <c r="U13" s="67"/>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="B14" s="13"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="15"/>
+      <c r="H14" s="68"/>
+      <c r="I14" s="69"/>
+      <c r="J14" s="69"/>
+      <c r="K14" s="69"/>
+      <c r="L14" s="69"/>
+      <c r="M14" s="69"/>
+      <c r="N14" s="69"/>
+      <c r="O14" s="69"/>
+      <c r="P14" s="69"/>
+      <c r="Q14" s="69"/>
+      <c r="R14" s="69"/>
+      <c r="S14" s="69"/>
+      <c r="T14" s="69"/>
+      <c r="U14" s="70"/>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="B15" s="13"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="15"/>
+      <c r="H15" s="68"/>
+      <c r="I15" s="69"/>
+      <c r="J15" s="69"/>
+      <c r="K15" s="69"/>
+      <c r="L15" s="69"/>
+      <c r="M15" s="69"/>
+      <c r="N15" s="69"/>
+      <c r="O15" s="69"/>
+      <c r="P15" s="69"/>
+      <c r="Q15" s="69"/>
+      <c r="R15" s="69"/>
+      <c r="S15" s="69"/>
+      <c r="T15" s="69"/>
+      <c r="U15" s="70"/>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="B16" s="13"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="15"/>
+      <c r="H16" s="68"/>
+      <c r="I16" s="69"/>
+      <c r="J16" s="69"/>
+      <c r="K16" s="69"/>
+      <c r="L16" s="69"/>
+      <c r="M16" s="69"/>
+      <c r="N16" s="69"/>
+      <c r="O16" s="69"/>
+      <c r="P16" s="69"/>
+      <c r="Q16" s="69"/>
+      <c r="R16" s="69"/>
+      <c r="S16" s="69"/>
+      <c r="T16" s="69"/>
+      <c r="U16" s="70"/>
+    </row>
+    <row r="17" spans="2:21" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B17" s="16"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="18"/>
+      <c r="H17" s="68"/>
+      <c r="I17" s="69"/>
+      <c r="J17" s="69"/>
+      <c r="K17" s="69"/>
+      <c r="L17" s="69"/>
+      <c r="M17" s="69"/>
+      <c r="N17" s="69"/>
+      <c r="O17" s="69"/>
+      <c r="P17" s="69"/>
+      <c r="Q17" s="69"/>
+      <c r="R17" s="69"/>
+      <c r="S17" s="69"/>
+      <c r="T17" s="69"/>
+      <c r="U17" s="70"/>
+    </row>
+    <row r="18" spans="2:21" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="H18" s="71"/>
+      <c r="I18" s="72"/>
+      <c r="J18" s="72"/>
+      <c r="K18" s="72"/>
+      <c r="L18" s="72"/>
+      <c r="M18" s="72"/>
+      <c r="N18" s="72"/>
+      <c r="O18" s="72"/>
+      <c r="P18" s="72"/>
+      <c r="Q18" s="72"/>
+      <c r="R18" s="72"/>
+      <c r="S18" s="72"/>
+      <c r="T18" s="72"/>
+      <c r="U18" s="73"/>
+    </row>
+    <row r="19" spans="2:21" ht="18.5" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="20" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B20" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="21"/>
+    </row>
+    <row r="21" spans="2:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="B21" s="53"/>
+      <c r="C21" s="54"/>
+      <c r="D21" s="54"/>
+      <c r="E21" s="54"/>
+      <c r="F21" s="54"/>
+      <c r="G21" s="54"/>
+      <c r="H21" s="56"/>
+    </row>
+    <row r="22" spans="2:21" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B22" s="53"/>
+      <c r="C22" s="54"/>
+      <c r="D22" s="54"/>
+      <c r="E22" s="54"/>
+      <c r="F22" s="54"/>
+      <c r="G22" s="54"/>
+      <c r="H22" s="56"/>
+    </row>
+    <row r="23" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B23" s="57" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" s="58"/>
+      <c r="D23" s="58"/>
+      <c r="E23" s="58"/>
+      <c r="F23" s="58"/>
+      <c r="G23" s="58"/>
+      <c r="H23" s="58"/>
+      <c r="I23" s="58"/>
+      <c r="J23" s="58"/>
+      <c r="K23" s="58"/>
+      <c r="L23" s="58"/>
+      <c r="M23" s="58"/>
+      <c r="N23" s="58"/>
+      <c r="O23" s="59"/>
+    </row>
+    <row r="24" spans="2:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="B24" s="60"/>
+      <c r="C24" s="61"/>
+      <c r="D24" s="61"/>
+      <c r="E24" s="61"/>
+      <c r="F24" s="61"/>
+      <c r="G24" s="61"/>
+      <c r="H24" s="61"/>
+      <c r="I24" s="61"/>
+      <c r="J24" s="61"/>
+      <c r="K24" s="61"/>
+      <c r="L24" s="61"/>
+      <c r="M24" s="61"/>
+      <c r="N24" s="61"/>
+      <c r="O24" s="62"/>
+    </row>
+    <row r="25" spans="2:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="B25" s="60"/>
+      <c r="C25" s="61"/>
+      <c r="D25" s="61"/>
+      <c r="E25" s="61"/>
+      <c r="F25" s="61"/>
+      <c r="G25" s="61"/>
+      <c r="H25" s="61"/>
+      <c r="I25" s="61"/>
+      <c r="J25" s="61"/>
+      <c r="K25" s="61"/>
+      <c r="L25" s="61"/>
+      <c r="M25" s="61"/>
+      <c r="N25" s="61"/>
+      <c r="O25" s="62"/>
+    </row>
+    <row r="26" spans="2:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="B26" s="60"/>
+      <c r="C26" s="61"/>
+      <c r="D26" s="61"/>
+      <c r="E26" s="61"/>
+      <c r="F26" s="61"/>
+      <c r="G26" s="61"/>
+      <c r="H26" s="61"/>
+      <c r="I26" s="61"/>
+      <c r="J26" s="61"/>
+      <c r="K26" s="61"/>
+      <c r="L26" s="61"/>
+      <c r="M26" s="61"/>
+      <c r="N26" s="61"/>
+      <c r="O26" s="62"/>
+    </row>
+    <row r="27" spans="2:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="B27" s="60"/>
+      <c r="C27" s="61"/>
+      <c r="D27" s="61"/>
+      <c r="E27" s="61"/>
+      <c r="F27" s="61"/>
+      <c r="G27" s="61"/>
+      <c r="H27" s="61"/>
+      <c r="I27" s="61"/>
+      <c r="J27" s="61"/>
+      <c r="K27" s="61"/>
+      <c r="L27" s="61"/>
+      <c r="M27" s="61"/>
+      <c r="N27" s="61"/>
+      <c r="O27" s="62"/>
+    </row>
+    <row r="28" spans="2:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="B28" s="60"/>
+      <c r="C28" s="61"/>
+      <c r="D28" s="61"/>
+      <c r="E28" s="61"/>
+      <c r="F28" s="61"/>
+      <c r="G28" s="61"/>
+      <c r="H28" s="61"/>
+      <c r="I28" s="61"/>
+      <c r="J28" s="61"/>
+      <c r="K28" s="61"/>
+      <c r="L28" s="61"/>
+      <c r="M28" s="61"/>
+      <c r="N28" s="61"/>
+      <c r="O28" s="62"/>
+    </row>
+    <row r="29" spans="2:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="B29" s="60"/>
+      <c r="C29" s="61"/>
+      <c r="D29" s="61"/>
+      <c r="E29" s="61"/>
+      <c r="F29" s="61"/>
+      <c r="G29" s="61"/>
+      <c r="H29" s="61"/>
+      <c r="I29" s="61"/>
+      <c r="J29" s="61"/>
+      <c r="K29" s="61"/>
+      <c r="L29" s="61"/>
+      <c r="M29" s="61"/>
+      <c r="N29" s="61"/>
+      <c r="O29" s="62"/>
+    </row>
+    <row r="30" spans="2:21" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B30" s="63"/>
+      <c r="C30" s="64"/>
+      <c r="D30" s="64"/>
+      <c r="E30" s="64"/>
+      <c r="F30" s="64"/>
+      <c r="G30" s="64"/>
+      <c r="H30" s="64"/>
+      <c r="I30" s="64"/>
+      <c r="J30" s="64"/>
+      <c r="K30" s="64"/>
+      <c r="L30" s="64"/>
+      <c r="M30" s="64"/>
+      <c r="N30" s="64"/>
+      <c r="O30" s="65"/>
+    </row>
+    <row r="31" spans="2:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="I31" s="31"/>
+      <c r="J31" s="31"/>
+      <c r="K31" s="31"/>
+      <c r="L31" s="31"/>
+      <c r="M31" s="31"/>
+      <c r="N31" s="31"/>
+      <c r="O31" s="31"/>
+    </row>
+    <row r="32" spans="2:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="I32" s="31"/>
+      <c r="J32" s="31"/>
+      <c r="K32" s="31"/>
+      <c r="L32" s="31"/>
+      <c r="M32" s="31"/>
+      <c r="N32" s="31"/>
+      <c r="O32" s="31"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="10">
+    <mergeCell ref="H10:N12"/>
+    <mergeCell ref="H13:U18"/>
+    <mergeCell ref="B20:H22"/>
+    <mergeCell ref="B23:O30"/>
     <mergeCell ref="A1:G3"/>
+    <mergeCell ref="B5:F17"/>
+    <mergeCell ref="H5:J6"/>
+    <mergeCell ref="K5:O6"/>
+    <mergeCell ref="H7:J8"/>
+    <mergeCell ref="K7:O8"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:R20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:G3"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J46" sqref="J46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="14"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A2" s="11"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="15"/>
-    </row>
-    <row r="3" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="16"/>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="18"/>
+    <row r="1" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="3"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="4"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="6"/>
+    </row>
+    <row r="3" spans="1:18" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A3" s="7"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="9"/>
+    </row>
+    <row r="4" spans="1:18" ht="18.5" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="B5" s="74" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="12"/>
+      <c r="H5" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" s="20"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="12"/>
+    </row>
+    <row r="6" spans="1:18" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B6" s="13"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="15"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="17"/>
+      <c r="O6" s="18"/>
+    </row>
+    <row r="7" spans="1:18" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B7" s="13"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="15"/>
+    </row>
+    <row r="8" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B8" s="13"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="15"/>
+      <c r="H8" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="20"/>
+      <c r="N8" s="21"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="B9" s="13"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="15"/>
+      <c r="H9" s="53"/>
+      <c r="I9" s="54"/>
+      <c r="J9" s="54"/>
+      <c r="K9" s="54"/>
+      <c r="L9" s="54"/>
+      <c r="M9" s="54"/>
+      <c r="N9" s="56"/>
+    </row>
+    <row r="10" spans="1:18" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B10" s="13"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="15"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="23"/>
+      <c r="M10" s="23"/>
+      <c r="N10" s="24"/>
+    </row>
+    <row r="11" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B11" s="13"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="15"/>
+      <c r="H11" s="57" t="s">
+        <v>28</v>
+      </c>
+      <c r="I11" s="66"/>
+      <c r="J11" s="66"/>
+      <c r="K11" s="66"/>
+      <c r="L11" s="66"/>
+      <c r="M11" s="66"/>
+      <c r="N11" s="66"/>
+      <c r="O11" s="66"/>
+      <c r="P11" s="66"/>
+      <c r="Q11" s="66"/>
+      <c r="R11" s="67"/>
+    </row>
+    <row r="12" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B12" s="13"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="15"/>
+      <c r="H12" s="68"/>
+      <c r="I12" s="69"/>
+      <c r="J12" s="69"/>
+      <c r="K12" s="69"/>
+      <c r="L12" s="69"/>
+      <c r="M12" s="69"/>
+      <c r="N12" s="69"/>
+      <c r="O12" s="69"/>
+      <c r="P12" s="69"/>
+      <c r="Q12" s="69"/>
+      <c r="R12" s="70"/>
+    </row>
+    <row r="13" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B13" s="13"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="15"/>
+      <c r="H13" s="68"/>
+      <c r="I13" s="69"/>
+      <c r="J13" s="69"/>
+      <c r="K13" s="69"/>
+      <c r="L13" s="69"/>
+      <c r="M13" s="69"/>
+      <c r="N13" s="69"/>
+      <c r="O13" s="69"/>
+      <c r="P13" s="69"/>
+      <c r="Q13" s="69"/>
+      <c r="R13" s="70"/>
+    </row>
+    <row r="14" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B14" s="13"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="15"/>
+      <c r="H14" s="68"/>
+      <c r="I14" s="69"/>
+      <c r="J14" s="69"/>
+      <c r="K14" s="69"/>
+      <c r="L14" s="69"/>
+      <c r="M14" s="69"/>
+      <c r="N14" s="69"/>
+      <c r="O14" s="69"/>
+      <c r="P14" s="69"/>
+      <c r="Q14" s="69"/>
+      <c r="R14" s="70"/>
+    </row>
+    <row r="15" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B15" s="13"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="15"/>
+      <c r="H15" s="68"/>
+      <c r="I15" s="69"/>
+      <c r="J15" s="69"/>
+      <c r="K15" s="69"/>
+      <c r="L15" s="69"/>
+      <c r="M15" s="69"/>
+      <c r="N15" s="69"/>
+      <c r="O15" s="69"/>
+      <c r="P15" s="69"/>
+      <c r="Q15" s="69"/>
+      <c r="R15" s="70"/>
+    </row>
+    <row r="16" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B16" s="13"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="15"/>
+      <c r="H16" s="68"/>
+      <c r="I16" s="69"/>
+      <c r="J16" s="69"/>
+      <c r="K16" s="69"/>
+      <c r="L16" s="69"/>
+      <c r="M16" s="69"/>
+      <c r="N16" s="69"/>
+      <c r="O16" s="69"/>
+      <c r="P16" s="69"/>
+      <c r="Q16" s="69"/>
+      <c r="R16" s="70"/>
+    </row>
+    <row r="17" spans="2:18" ht="18.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B17" s="16"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="18"/>
+      <c r="H17" s="68"/>
+      <c r="I17" s="69"/>
+      <c r="J17" s="69"/>
+      <c r="K17" s="69"/>
+      <c r="L17" s="69"/>
+      <c r="M17" s="69"/>
+      <c r="N17" s="69"/>
+      <c r="O17" s="69"/>
+      <c r="P17" s="69"/>
+      <c r="Q17" s="69"/>
+      <c r="R17" s="70"/>
+    </row>
+    <row r="18" spans="2:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="H18" s="68"/>
+      <c r="I18" s="69"/>
+      <c r="J18" s="69"/>
+      <c r="K18" s="69"/>
+      <c r="L18" s="69"/>
+      <c r="M18" s="69"/>
+      <c r="N18" s="69"/>
+      <c r="O18" s="69"/>
+      <c r="P18" s="69"/>
+      <c r="Q18" s="69"/>
+      <c r="R18" s="70"/>
+    </row>
+    <row r="19" spans="2:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="H19" s="68"/>
+      <c r="I19" s="69"/>
+      <c r="J19" s="69"/>
+      <c r="K19" s="69"/>
+      <c r="L19" s="69"/>
+      <c r="M19" s="69"/>
+      <c r="N19" s="69"/>
+      <c r="O19" s="69"/>
+      <c r="P19" s="69"/>
+      <c r="Q19" s="69"/>
+      <c r="R19" s="70"/>
+    </row>
+    <row r="20" spans="2:18" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="H20" s="71"/>
+      <c r="I20" s="72"/>
+      <c r="J20" s="72"/>
+      <c r="K20" s="72"/>
+      <c r="L20" s="72"/>
+      <c r="M20" s="72"/>
+      <c r="N20" s="72"/>
+      <c r="O20" s="72"/>
+      <c r="P20" s="72"/>
+      <c r="Q20" s="72"/>
+      <c r="R20" s="73"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="6">
     <mergeCell ref="A1:G3"/>
+    <mergeCell ref="B5:F17"/>
+    <mergeCell ref="H5:J6"/>
+    <mergeCell ref="K5:O6"/>
+    <mergeCell ref="H8:N10"/>
+    <mergeCell ref="H11:R20"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2083,46 +4061,268 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:U17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:G3"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="14"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A2" s="11"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="15"/>
-    </row>
-    <row r="3" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="16"/>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="18"/>
+    <row r="1" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="3"/>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="4"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="6"/>
+    </row>
+    <row r="3" spans="1:21" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A3" s="7"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="9"/>
+    </row>
+    <row r="4" spans="1:21" ht="18.5" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="B5" s="74" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="12"/>
+      <c r="H5" s="84" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="12"/>
+    </row>
+    <row r="6" spans="1:21" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B6" s="13"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="15"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="18"/>
+    </row>
+    <row r="7" spans="1:21" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B7" s="13"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="15"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="31"/>
+      <c r="J7" s="31"/>
+    </row>
+    <row r="8" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B8" s="13"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="15"/>
+      <c r="H8" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="20"/>
+      <c r="N8" s="21"/>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="B9" s="13"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="15"/>
+      <c r="H9" s="53"/>
+      <c r="I9" s="54"/>
+      <c r="J9" s="54"/>
+      <c r="K9" s="54"/>
+      <c r="L9" s="54"/>
+      <c r="M9" s="54"/>
+      <c r="N9" s="56"/>
+    </row>
+    <row r="10" spans="1:21" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B10" s="13"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="15"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="23"/>
+      <c r="M10" s="23"/>
+      <c r="N10" s="24"/>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="B11" s="13"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="15"/>
+      <c r="H11" s="57" t="s">
+        <v>27</v>
+      </c>
+      <c r="I11" s="66"/>
+      <c r="J11" s="66"/>
+      <c r="K11" s="66"/>
+      <c r="L11" s="66"/>
+      <c r="M11" s="66"/>
+      <c r="N11" s="66"/>
+      <c r="O11" s="66"/>
+      <c r="P11" s="66"/>
+      <c r="Q11" s="66"/>
+      <c r="R11" s="66"/>
+      <c r="S11" s="66"/>
+      <c r="T11" s="66"/>
+      <c r="U11" s="67"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="B12" s="13"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="15"/>
+      <c r="H12" s="68"/>
+      <c r="I12" s="69"/>
+      <c r="J12" s="69"/>
+      <c r="K12" s="69"/>
+      <c r="L12" s="69"/>
+      <c r="M12" s="69"/>
+      <c r="N12" s="69"/>
+      <c r="O12" s="69"/>
+      <c r="P12" s="69"/>
+      <c r="Q12" s="69"/>
+      <c r="R12" s="69"/>
+      <c r="S12" s="69"/>
+      <c r="T12" s="69"/>
+      <c r="U12" s="70"/>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="B13" s="13"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="15"/>
+      <c r="H13" s="68"/>
+      <c r="I13" s="69"/>
+      <c r="J13" s="69"/>
+      <c r="K13" s="69"/>
+      <c r="L13" s="69"/>
+      <c r="M13" s="69"/>
+      <c r="N13" s="69"/>
+      <c r="O13" s="69"/>
+      <c r="P13" s="69"/>
+      <c r="Q13" s="69"/>
+      <c r="R13" s="69"/>
+      <c r="S13" s="69"/>
+      <c r="T13" s="69"/>
+      <c r="U13" s="70"/>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="B14" s="13"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="15"/>
+      <c r="H14" s="68"/>
+      <c r="I14" s="69"/>
+      <c r="J14" s="69"/>
+      <c r="K14" s="69"/>
+      <c r="L14" s="69"/>
+      <c r="M14" s="69"/>
+      <c r="N14" s="69"/>
+      <c r="O14" s="69"/>
+      <c r="P14" s="69"/>
+      <c r="Q14" s="69"/>
+      <c r="R14" s="69"/>
+      <c r="S14" s="69"/>
+      <c r="T14" s="69"/>
+      <c r="U14" s="70"/>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="B15" s="13"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="15"/>
+      <c r="H15" s="68"/>
+      <c r="I15" s="69"/>
+      <c r="J15" s="69"/>
+      <c r="K15" s="69"/>
+      <c r="L15" s="69"/>
+      <c r="M15" s="69"/>
+      <c r="N15" s="69"/>
+      <c r="O15" s="69"/>
+      <c r="P15" s="69"/>
+      <c r="Q15" s="69"/>
+      <c r="R15" s="69"/>
+      <c r="S15" s="69"/>
+      <c r="T15" s="69"/>
+      <c r="U15" s="70"/>
+    </row>
+    <row r="16" spans="1:21" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B16" s="13"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="15"/>
+      <c r="H16" s="71"/>
+      <c r="I16" s="72"/>
+      <c r="J16" s="72"/>
+      <c r="K16" s="72"/>
+      <c r="L16" s="72"/>
+      <c r="M16" s="72"/>
+      <c r="N16" s="72"/>
+      <c r="O16" s="72"/>
+      <c r="P16" s="72"/>
+      <c r="Q16" s="72"/>
+      <c r="R16" s="72"/>
+      <c r="S16" s="72"/>
+      <c r="T16" s="72"/>
+      <c r="U16" s="73"/>
+    </row>
+    <row r="17" spans="2:6" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B17" s="16"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="18"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="5">
     <mergeCell ref="A1:G3"/>
+    <mergeCell ref="B5:F17"/>
+    <mergeCell ref="H5:L6"/>
+    <mergeCell ref="H8:N10"/>
+    <mergeCell ref="H11:U16"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2132,46 +4332,277 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="14"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A2" s="11"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="15"/>
-    </row>
-    <row r="3" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="16"/>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="18"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="3"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="4"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="6"/>
+    </row>
+    <row r="3" spans="1:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A3" s="7"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="9"/>
+    </row>
+    <row r="4" spans="1:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="5" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="3"/>
+      <c r="G5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="3"/>
+    </row>
+    <row r="6" spans="1:10" ht="18.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B6" s="4"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="6"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="6"/>
+    </row>
+    <row r="7" spans="1:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B7" s="7"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="9"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="9"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B8" s="75" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="76"/>
+      <c r="D8" s="76"/>
+      <c r="E8" s="77"/>
+      <c r="G8" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="27"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B9" s="78" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="79"/>
+      <c r="D9" s="79"/>
+      <c r="E9" s="80"/>
+      <c r="G9" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="H9" s="31"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="43"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B10" s="78" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="79"/>
+      <c r="D10" s="79"/>
+      <c r="E10" s="80"/>
+      <c r="G10" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="H10" s="31"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="43"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B11" s="78" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="79"/>
+      <c r="D11" s="79"/>
+      <c r="E11" s="80"/>
+      <c r="G11" s="42" t="s">
+        <v>39</v>
+      </c>
+      <c r="H11" s="31"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="43"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B12" s="78" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="79"/>
+      <c r="D12" s="79"/>
+      <c r="E12" s="80"/>
+      <c r="G12" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="H12" s="31"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="43"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B13" s="78" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="79"/>
+      <c r="D13" s="79"/>
+      <c r="E13" s="80"/>
+      <c r="G13" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="H13" s="31"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="43"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B14" s="78"/>
+      <c r="C14" s="79"/>
+      <c r="D14" s="79"/>
+      <c r="E14" s="80"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="31"/>
+      <c r="J14" s="43"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B15" s="78"/>
+      <c r="C15" s="79"/>
+      <c r="D15" s="79"/>
+      <c r="E15" s="80"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="31"/>
+      <c r="I15" s="31"/>
+      <c r="J15" s="43"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B16" s="78"/>
+      <c r="C16" s="79"/>
+      <c r="D16" s="79"/>
+      <c r="E16" s="80"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="31"/>
+      <c r="J16" s="43"/>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B17" s="78"/>
+      <c r="C17" s="79"/>
+      <c r="D17" s="79"/>
+      <c r="E17" s="80"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="31"/>
+      <c r="I17" s="31"/>
+      <c r="J17" s="43"/>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B18" s="78"/>
+      <c r="C18" s="79"/>
+      <c r="D18" s="79"/>
+      <c r="E18" s="80"/>
+      <c r="G18" s="42"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="31"/>
+      <c r="J18" s="43"/>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B19" s="78"/>
+      <c r="C19" s="79"/>
+      <c r="D19" s="79"/>
+      <c r="E19" s="80"/>
+      <c r="G19" s="42"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="31"/>
+      <c r="J19" s="43"/>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B20" s="78"/>
+      <c r="C20" s="79"/>
+      <c r="D20" s="79"/>
+      <c r="E20" s="80"/>
+      <c r="G20" s="42"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="31"/>
+      <c r="J20" s="43"/>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B21" s="78"/>
+      <c r="C21" s="79"/>
+      <c r="D21" s="79"/>
+      <c r="E21" s="80"/>
+      <c r="G21" s="42"/>
+      <c r="H21" s="31"/>
+      <c r="I21" s="31"/>
+      <c r="J21" s="43"/>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B22" s="78"/>
+      <c r="C22" s="79"/>
+      <c r="D22" s="79"/>
+      <c r="E22" s="80"/>
+      <c r="G22" s="42"/>
+      <c r="H22" s="31"/>
+      <c r="I22" s="31"/>
+      <c r="J22" s="43"/>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B23" s="78"/>
+      <c r="C23" s="79"/>
+      <c r="D23" s="79"/>
+      <c r="E23" s="80"/>
+      <c r="G23" s="42"/>
+      <c r="H23" s="31"/>
+      <c r="I23" s="31"/>
+      <c r="J23" s="43"/>
+    </row>
+    <row r="24" spans="2:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B24" s="81"/>
+      <c r="C24" s="82"/>
+      <c r="D24" s="82"/>
+      <c r="E24" s="83"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="29"/>
+      <c r="I24" s="29"/>
+      <c r="J24" s="30"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="A1:G3"/>
+    <mergeCell ref="B5:E7"/>
+    <mergeCell ref="G5:J7"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
